--- a/reactive/ddra.xlsx
+++ b/reactive/ddra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\soliman\m5out_stats\reactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730CABAF-AC91-448D-931F-F88735EB7727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAB77B7-D838-4AD2-B5C6-DEC0F1DF79CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="552" yWindow="0" windowWidth="29844" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1920" yWindow="732" windowWidth="29268" windowHeight="16548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -467,7 +467,7 @@
   <dimension ref="A1:AA241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20476,7 +20476,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA241" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA241">
     <sortCondition ref="C2:C241"/>
     <sortCondition ref="D2:D241"/>
